--- a/example/Your_Rails_App/config/locales/locales.xlsx
+++ b/example/Your_Rails_App/config/locales/locales.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPro\RMSCADA\config\locales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPro\EXCEL2LOCALIZATION\excel2local\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>en</t>
   </si>
@@ -50,28 +50,46 @@
     <t>connect to server</t>
   </si>
   <si>
-    <t>соединение с сервером</t>
-  </si>
-  <si>
     <t xml:space="preserve">контакт </t>
   </si>
   <si>
     <t>head.info.true</t>
   </si>
   <si>
-    <t>text en 2</t>
-  </si>
-  <si>
-    <t>текст 2</t>
-  </si>
-  <si>
     <t>head.true.test</t>
   </si>
   <si>
-    <t>text en 3</t>
-  </si>
-  <si>
-    <t>текси3</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>правда</t>
+  </si>
+  <si>
+    <t>тру</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>тест</t>
+  </si>
+  <si>
+    <t>соединение</t>
+  </si>
+  <si>
+    <t>эй бро</t>
+  </si>
+  <si>
+    <t>hello.world</t>
+  </si>
+  <si>
+    <t>hello world</t>
+  </si>
+  <si>
+    <t>привет мир</t>
+  </si>
+  <si>
+    <t>YO!</t>
   </si>
 </sst>
 </file>
@@ -424,17 +442,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D6" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.296875" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" customWidth="1"/>
+    <col min="4" max="4" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -464,21 +483,21 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -487,21 +506,35 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
+      <c r="D6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/example/Your_Rails_App/config/locales/locales.xlsx
+++ b/example/Your_Rails_App/config/locales/locales.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyPro\EXCEL2LOCALIZATION\excel2local\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel2local\example\Your_Rails_App\config\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>en</t>
   </si>
@@ -32,64 +32,55 @@
     <t>ru</t>
   </si>
   <si>
+    <t>head.info.connect</t>
+  </si>
+  <si>
+    <t>connect to server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">контакт </t>
+  </si>
+  <si>
+    <t>head.info.true</t>
+  </si>
+  <si>
+    <t>head.true.test</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>правда</t>
+  </si>
+  <si>
+    <t>тру</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>тест</t>
+  </si>
+  <si>
+    <t>соединение</t>
+  </si>
+  <si>
+    <t>эй бро</t>
+  </si>
+  <si>
+    <t>YO!</t>
+  </si>
+  <si>
+    <t>hell.world</t>
+  </si>
+  <si>
+    <t>hell world</t>
+  </si>
+  <si>
+    <t>Адский мир</t>
+  </si>
+  <si>
     <t>ru_fun</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>привет</t>
-  </si>
-  <si>
-    <t>приувет</t>
-  </si>
-  <si>
-    <t>head.info.connect</t>
-  </si>
-  <si>
-    <t>connect to server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">контакт </t>
-  </si>
-  <si>
-    <t>head.info.true</t>
-  </si>
-  <si>
-    <t>head.true.test</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>правда</t>
-  </si>
-  <si>
-    <t>тру</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>тест</t>
-  </si>
-  <si>
-    <t>соединение</t>
-  </si>
-  <si>
-    <t>эй бро</t>
-  </si>
-  <si>
-    <t>hello.world</t>
-  </si>
-  <si>
-    <t>hello world</t>
-  </si>
-  <si>
-    <t>привет мир</t>
-  </si>
-  <si>
-    <t>YO!</t>
   </si>
 </sst>
 </file>
@@ -442,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.296875" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" customWidth="1"/>
     <col min="2" max="2" width="15.8984375" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" customWidth="1"/>
     <col min="4" max="4" width="8.8984375" customWidth="1"/>
@@ -464,49 +455,49 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -514,27 +505,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
